--- a/biology/Botanique/Hylotelephium_maximum/Hylotelephium_maximum.xlsx
+++ b/biology/Botanique/Hylotelephium_maximum/Hylotelephium_maximum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylotelephium maximum
 Hylotelephium maximum, le Grand orpin, est une espèce de plantes vivaces de la famille des Crassulacées.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sedum telephium subsp. maximum
 Sedum maximum</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand orpin est une plante vivace de 30 à 90 cm, très robuste, glabre, à souche épaisse et à tige raide et feuillée. Les feuilles sont ovales, entières, longues de 2 à 4 cm, de couleur glauque. Les fleurs sont jaunâtres, pédicellées et disposées en corymbes.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette crassulacée est une plante montagnarde qu'on retrouve dans un certain nombre de massifs montagneux européens (jusqu'au Caucase) et en Europe du nord. En France, elle est présente dans les Alpes, le Massif central et les Pyrénées. On la trouve sur les rochers ou dans les bois, sur substrat siliceux uniquement.
 </t>
@@ -605,7 +623,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Grand Orpin dans les monts d'Aubrac (Massif central).
